--- a/xls/upStar.xlsx
+++ b/xls/upStar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\kbengine\fbgServer\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14880" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -30,10 +35,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>useStr[.][funcStrDict]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>shoot[.][funcInt]</t>
   </si>
   <si>
@@ -68,10 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>射门属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>传球属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,18 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>def      防守</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trick    拦截</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>steal    抢断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控球</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,26 +91,6 @@
   <si>
     <t>身体</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2升3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3升4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4升5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5升6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>102017:10;102018:3</t>
@@ -140,7 +105,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>射门属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 防守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>102019:15;102020:3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>useStr[.][funcStrDict]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -278,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,31 +508,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="25.375" customWidth="1"/>
-    <col min="11" max="13" width="19" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="10" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -571,67 +559,61 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>200</v>
       </c>
       <c r="D3" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -649,30 +631,27 @@
         <v>100</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K3" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
       </c>
       <c r="D4" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -690,30 +669,27 @@
         <v>100</v>
       </c>
       <c r="J4" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -731,30 +707,27 @@
         <v>100</v>
       </c>
       <c r="J5" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K5" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
       </c>
       <c r="D6" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -772,15 +745,12 @@
         <v>100</v>
       </c>
       <c r="J6" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K6" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
         <v>0</v>
       </c>
     </row>

--- a/xls/upStar.xlsx
+++ b/xls/upStar.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14880" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -61,14 +56,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tech[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>health[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>传球属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -85,47 +72,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>技术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102017:10;102018:3</t>
+    <t>射门属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 防守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拦截</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useStr[.][funcStrDict]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>102017:15;102018:10</t>
+    <t>102013:3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>102018:15;102019:10</t>
+    <t>102013:5;102014:3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>射门属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 防守</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拦截</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抢断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102019:15;102020:3</t>
+    <t>102014:5;102015:3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>useStr[.][funcStrDict]</t>
+    <t>102014:10;102015:7;102016:2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,15 +173,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -221,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -263,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,16 +512,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="56.625" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
@@ -525,15 +529,15 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
-    <col min="10" max="12" width="19" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -559,200 +563,219 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-      <c r="J3" s="1">
-        <v>150</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1">
-        <v>150</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>320</v>
+      </c>
+      <c r="D4" s="5">
+        <v>160</v>
+      </c>
+      <c r="E4" s="5">
+        <v>160</v>
+      </c>
+      <c r="F4" s="5">
+        <v>160</v>
+      </c>
+      <c r="G4" s="5">
+        <v>160</v>
+      </c>
+      <c r="H4" s="5">
+        <v>160</v>
+      </c>
+      <c r="I4" s="5">
+        <v>240</v>
+      </c>
+      <c r="J4" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-      <c r="J5" s="1">
-        <v>150</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>560</v>
+      </c>
+      <c r="D5" s="5">
+        <v>280</v>
+      </c>
+      <c r="E5" s="5">
+        <v>280</v>
+      </c>
+      <c r="F5" s="5">
+        <v>280</v>
+      </c>
+      <c r="G5" s="5">
+        <v>280</v>
+      </c>
+      <c r="H5" s="5">
+        <v>280</v>
+      </c>
+      <c r="I5" s="5">
+        <v>420</v>
+      </c>
+      <c r="J5" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1">
-        <v>100</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100</v>
-      </c>
-      <c r="J6" s="1">
-        <v>150</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>800</v>
+      </c>
+      <c r="D6" s="4">
+        <v>400</v>
+      </c>
+      <c r="E6" s="4">
+        <v>400</v>
+      </c>
+      <c r="F6" s="4">
+        <v>400</v>
+      </c>
+      <c r="G6" s="4">
+        <v>400</v>
+      </c>
+      <c r="H6" s="4">
+        <v>400</v>
+      </c>
+      <c r="I6" s="4">
+        <v>600</v>
+      </c>
+      <c r="J6" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/xls/upStar.xlsx
+++ b/xls/upStar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>102014:10;102015:7;102016:2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -188,14 +196,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +225,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,14 +559,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="56.625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="56.625" style="9" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
@@ -532,250 +577,284 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>40</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>20</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>20</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>20</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>30</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>320</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>160</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>160</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>160</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>160</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>160</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>240</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>560</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>280</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>280</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>280</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>280</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>280</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>420</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>800</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>400</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>400</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>400</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>400</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>400</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>600</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
+      <c r="B12" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -802,7 +881,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
